--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebec\Documents\PPE\Projetos Cenergia\WRI_EPS\Fuels\fuels - feitas\BSoFPtiT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\fuels\BSoFPtiT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFD012-C20F-4AC3-91F6-9E151443B2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Petroleum" sheetId="4" r:id="rId5"/>
     <sheet name="BSoFPtiT" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="377">
   <si>
     <t>Source:</t>
   </si>
@@ -1170,12 +1169,18 @@
   </si>
   <si>
     <t>then we divide this number to the total GDP value and obtain the national average sales tax rate.</t>
+  </si>
+  <si>
+    <t>Average Sales Tax Rate</t>
+  </si>
+  <si>
+    <t>Used when no more specific data are available for a fuel type.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1979,6 +1984,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1997,33 +2008,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="15" xr:uid="{C2B597C9-9DDB-4E6C-92F1-F397CE0CB840}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Header: top rows" xfId="16" xr:uid="{E9EEA41B-C320-41BC-9075-FB8078435570}"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Body: normal cell 2" xfId="11"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13"/>
+    <cellStyle name="Footnotes: all except top row" xfId="15"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Footnotes: top row 2" xfId="9"/>
+    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Header: bottom row 2" xfId="12"/>
+    <cellStyle name="Header: top rows" xfId="16"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Parent row 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Section Break" xfId="17" xr:uid="{3C6182EB-0C8C-4C5F-BF6F-14CD423B1AB2}"/>
-    <cellStyle name="Section Break: parent row" xfId="18" xr:uid="{B0B6C3F0-71D1-4973-BB36-76097D4946ED}"/>
-    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Table title 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Parent row 2" xfId="10"/>
+    <cellStyle name="Section Break" xfId="17"/>
+    <cellStyle name="Section Break: parent row" xfId="18"/>
+    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Table title 2" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2039,7 +2044,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2114,23 +2119,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2166,23 +2154,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2358,23 +2329,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="96.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
@@ -2390,13 +2361,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="13">
         <v>2020</v>
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>46</v>
       </c>
@@ -2404,28 +2375,28 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="9" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42">
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="98" t="s">
         <v>354</v>
       </c>
@@ -2433,33 +2404,33 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="98" t="s">
         <v>357</v>
       </c>
       <c r="C13" s="43"/>
     </row>
-    <row r="14" spans="1:3" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" s="99" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="50" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B18" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19" s="44" t="s">
         <v>50</v>
       </c>
@@ -2467,60 +2438,60 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="44"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:3" s="12" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" s="12" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B30" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="25"/>
     </row>
-    <row r="32" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="26" t="s">
         <v>58</v>
       </c>
@@ -2528,135 +2499,135 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="17"/>
       <c r="C33" s="44">
         <f>'Avg sales tax rate'!E10</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="17"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="44" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="44" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="44" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="44" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="44" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="44" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="44" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="44"/>
     </row>
-    <row r="52" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="22" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="44" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="44" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="44" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="44"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>365</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{6CF85E22-324C-4E40-BED7-65157E25B9C1}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{098E30B4-7A00-47DB-9A84-1C92E1706D5C}"/>
-    <hyperlink ref="B30" r:id="rId3" xr:uid="{1E5E2519-DF54-4848-917E-F98911BE37A4}"/>
-    <hyperlink ref="B26" r:id="rId4" xr:uid="{A97BBB0A-3E90-45BD-A4C2-82C504C1F75B}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{57811227-00E8-46B6-92A7-654CF9894788}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B32" r:id="rId2"/>
+    <hyperlink ref="B30" r:id="rId3"/>
+    <hyperlink ref="B26" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -2664,14 +2635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639E2444-2DE9-43AB-AFFC-714121DA9685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="50"/>
+    <col min="1" max="1" width="9.1328125" style="50"/>
     <col min="2" max="2" width="31.33203125" style="50" customWidth="1"/>
     <col min="3" max="3" width="6" style="50" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="50" bestFit="1" customWidth="1"/>
@@ -2694,26 +2665,26 @@
     <col min="75" max="75" width="9" style="50" customWidth="1"/>
     <col min="76" max="77" width="10" style="50" bestFit="1" customWidth="1"/>
     <col min="78" max="79" width="11" style="50" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.44140625" style="50" customWidth="1"/>
-    <col min="81" max="81" width="9.109375" style="50"/>
-    <col min="82" max="82" width="10.44140625" style="50" customWidth="1"/>
-    <col min="83" max="16384" width="9.109375" style="50"/>
+    <col min="80" max="80" width="12.46484375" style="50" customWidth="1"/>
+    <col min="81" max="81" width="9.1328125" style="50"/>
+    <col min="82" max="82" width="10.46484375" style="50" customWidth="1"/>
+    <col min="83" max="16384" width="9.1328125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:84" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="53" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A4" s="64" t="s">
         <v>168</v>
       </c>
@@ -2796,7 +2767,7 @@
       <c r="BZ4" s="66"/>
       <c r="CA4" s="66"/>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A5" s="64" t="s">
         <v>170</v>
       </c>
@@ -3017,7 +2988,7 @@
       <c r="CA5" s="64"/>
       <c r="CB5" s="64"/>
     </row>
-    <row r="6" spans="1:84" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="64"/>
       <c r="B6" s="65"/>
       <c r="D6" s="70" t="s">
@@ -3252,7 +3223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.45">
       <c r="C7" s="50">
         <v>0</v>
       </c>
@@ -3565,7 +3536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>238</v>
       </c>
@@ -3820,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
         <v>239</v>
       </c>
@@ -4075,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
         <v>240</v>
       </c>
@@ -4330,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>241</v>
       </c>
@@ -4585,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>242</v>
       </c>
@@ -4840,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>243</v>
       </c>
@@ -5095,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
         <v>244</v>
       </c>
@@ -5350,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
         <v>245</v>
       </c>
@@ -5605,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
         <v>246</v>
       </c>
@@ -5860,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>247</v>
       </c>
@@ -6115,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A18" s="73" t="s">
         <v>248</v>
       </c>
@@ -6370,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A19" s="73" t="s">
         <v>249</v>
       </c>
@@ -6625,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>250</v>
       </c>
@@ -6880,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>251</v>
       </c>
@@ -7135,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>252</v>
       </c>
@@ -7390,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A23" s="73" t="s">
         <v>253</v>
       </c>
@@ -7645,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>254</v>
       </c>
@@ -7900,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
         <v>255</v>
       </c>
@@ -8155,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
         <v>256</v>
       </c>
@@ -8410,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A27" s="73" t="s">
         <v>257</v>
       </c>
@@ -8665,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>258</v>
       </c>
@@ -8920,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
         <v>259</v>
       </c>
@@ -9175,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
         <v>260</v>
       </c>
@@ -9430,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>261</v>
       </c>
@@ -9685,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A32" s="73" t="s">
         <v>262</v>
       </c>
@@ -9940,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A33" s="73" t="s">
         <v>263</v>
       </c>
@@ -10195,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>264</v>
       </c>
@@ -10450,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A35" s="73" t="s">
         <v>265</v>
       </c>
@@ -10705,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>266</v>
       </c>
@@ -10960,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A37" s="73" t="s">
         <v>267</v>
       </c>
@@ -11215,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A38" s="73" t="s">
         <v>268</v>
       </c>
@@ -11470,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
         <v>269</v>
       </c>
@@ -11725,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>270</v>
       </c>
@@ -11980,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A41" s="73" t="s">
         <v>271</v>
       </c>
@@ -12235,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A42" s="73" t="s">
         <v>272</v>
       </c>
@@ -12490,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
         <v>273</v>
       </c>
@@ -12745,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
         <v>274</v>
       </c>
@@ -13000,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
         <v>275</v>
       </c>
@@ -13255,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
         <v>276</v>
       </c>
@@ -13510,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
         <v>277</v>
       </c>
@@ -13765,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
         <v>278</v>
       </c>
@@ -14020,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
         <v>279</v>
       </c>
@@ -14275,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A50" s="73" t="s">
         <v>280</v>
       </c>
@@ -14530,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
         <v>281</v>
       </c>
@@ -14785,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A52" s="73" t="s">
         <v>282</v>
       </c>
@@ -15040,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
         <v>283</v>
       </c>
@@ -15295,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
         <v>284</v>
       </c>
@@ -15550,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
         <v>285</v>
       </c>
@@ -15805,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A56" s="73" t="s">
         <v>286</v>
       </c>
@@ -16060,7 +16031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A57" s="73" t="s">
         <v>287</v>
       </c>
@@ -16315,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
         <v>288</v>
       </c>
@@ -16570,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
         <v>289</v>
       </c>
@@ -16825,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A60" s="73" t="s">
         <v>290</v>
       </c>
@@ -17080,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
         <v>291</v>
       </c>
@@ -17335,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A62" s="73" t="s">
         <v>292</v>
       </c>
@@ -17590,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
         <v>293</v>
       </c>
@@ -17845,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
         <v>294</v>
       </c>
@@ -18100,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A65" s="72" t="s">
         <v>295</v>
       </c>
@@ -18355,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
         <v>296</v>
       </c>
@@ -18610,7 +18581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
         <v>297</v>
       </c>
@@ -18865,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A68" s="72" t="s">
         <v>298</v>
       </c>
@@ -19120,7 +19091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A69" s="72" t="s">
         <v>299</v>
       </c>
@@ -19375,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A70" s="72" t="s">
         <v>300</v>
       </c>
@@ -19630,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A71" s="72" t="s">
         <v>301</v>
       </c>
@@ -19885,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A72" s="72" t="s">
         <v>302</v>
       </c>
@@ -20140,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A73" s="73" t="s">
         <v>303</v>
       </c>
@@ -20395,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A74" s="73" t="s">
         <v>304</v>
       </c>
@@ -20650,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A75" s="72" t="s">
         <v>305</v>
       </c>
@@ -20905,7 +20876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A76" s="74"/>
       <c r="B76" s="75" t="s">
         <v>306</v>
@@ -21158,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A77" s="66"/>
       <c r="B77" s="76" t="s">
         <v>307</v>
@@ -21411,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B78" s="76" t="s">
         <v>308</v>
       </c>
@@ -21663,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B79" s="56" t="s">
         <v>309</v>
       </c>
@@ -21915,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B80" s="56" t="s">
         <v>310</v>
       </c>
@@ -22167,7 +22138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B81" s="56" t="s">
         <v>311</v>
       </c>
@@ -22419,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B82" s="56" t="s">
         <v>310</v>
       </c>
@@ -22671,7 +22642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B83" s="56" t="s">
         <v>312</v>
       </c>
@@ -22923,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B84" s="56" t="s">
         <v>310</v>
       </c>
@@ -23175,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B85" s="76" t="s">
         <v>313</v>
       </c>
@@ -23427,7 +23398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A86" s="50" t="s">
         <v>314</v>
       </c>
@@ -23682,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A87" s="50" t="s">
         <v>316</v>
       </c>
@@ -23937,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A88" s="50" t="s">
         <v>318</v>
       </c>
@@ -24192,7 +24163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B89" s="44" t="s">
         <v>320</v>
       </c>
@@ -24444,7 +24415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B90" s="76" t="s">
         <v>321</v>
       </c>
@@ -24696,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A91" s="50" t="s">
         <v>322</v>
       </c>
@@ -24951,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A92" s="50" t="s">
         <v>324</v>
       </c>
@@ -25206,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B93" s="76" t="s">
         <v>326</v>
       </c>
@@ -25458,7 +25429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B94" s="76" t="s">
         <v>327</v>
       </c>
@@ -25710,7 +25681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A95" s="50" t="s">
         <v>328</v>
       </c>
@@ -25965,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A96" s="50" t="s">
         <v>330</v>
       </c>
@@ -26220,7 +26191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A97" s="50" t="s">
         <v>331</v>
       </c>
@@ -26475,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A98" s="50" t="s">
         <v>332</v>
       </c>
@@ -26730,7 +26701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A99" s="50" t="s">
         <v>334</v>
       </c>
@@ -26985,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:84" x14ac:dyDescent="0.45">
       <c r="B100" s="76" t="s">
         <v>335</v>
       </c>
@@ -27237,10 +27208,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:84" x14ac:dyDescent="0.45">
       <c r="CD101" s="55"/>
     </row>
-    <row r="102" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D102" s="55">
         <f t="shared" ref="D102:AI102" si="10">SUM(D8:D75)-D76</f>
         <v>0</v>
@@ -27563,7 +27534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D103" s="55">
         <f>SUM(D76:D84)-D85</f>
         <v>0</v>
@@ -27885,7 +27856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D104" s="55">
         <f>D87+D88+D91-D86</f>
         <v>0</v>
@@ -28207,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D105" s="55">
         <f>D89+D90-D88</f>
         <v>0</v>
@@ -28529,7 +28500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D106" s="55">
         <f>D93+D94-D92</f>
         <v>0</v>
@@ -28851,7 +28822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D107" s="55">
         <f>D86+D92-D95</f>
         <v>0</v>
@@ -29173,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D108" s="55">
         <f>SUM(D95:D97)-D98</f>
         <v>0</v>
@@ -29495,7 +29466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:84" x14ac:dyDescent="0.45">
       <c r="D109" s="55">
         <f>D85+D98-D99</f>
         <v>0</v>
@@ -29826,80 +29797,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F26036-4307-460D-AE91-D2A4B0CC10B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
+    <col min="1" max="1" width="8.86328125" style="50"/>
     <col min="2" max="2" width="29.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.53125" style="50" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.53125" style="50" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.53125" style="50" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.53125" style="50" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="10.6640625" style="50" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="10.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="76" max="77" width="10.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.1328125" style="50" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10.6640625" style="50" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="11.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="82" max="16384" width="8.88671875" style="50"/>
+    <col min="81" max="81" width="10.1328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="82" max="16384" width="8.86328125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="53" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:80" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" ht="44.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="52" t="s">
         <v>338</v>
       </c>
@@ -30135,497 +30106,497 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A5" s="16">
         <v>96</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="102">
         <v>1016</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="102">
         <v>449</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="102">
         <v>115</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="102">
         <v>162</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="102">
         <v>1163</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5" s="102">
         <v>487</v>
       </c>
-      <c r="J5" s="108">
+      <c r="J5" s="102">
         <v>111</v>
       </c>
-      <c r="K5" s="108">
+      <c r="K5" s="102">
         <v>1407</v>
       </c>
-      <c r="L5" s="108">
+      <c r="L5" s="102">
         <v>649</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="102">
         <v>1747</v>
       </c>
-      <c r="N5" s="108">
+      <c r="N5" s="102">
         <v>629</v>
       </c>
-      <c r="O5" s="108">
+      <c r="O5" s="102">
         <v>93</v>
       </c>
-      <c r="P5" s="108">
+      <c r="P5" s="102">
         <v>393</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="102">
         <v>540</v>
       </c>
-      <c r="R5" s="108">
+      <c r="R5" s="102">
         <v>374</v>
       </c>
-      <c r="S5" s="108">
+      <c r="S5" s="102">
         <v>269</v>
       </c>
-      <c r="T5" s="108">
+      <c r="T5" s="102">
         <v>510</v>
       </c>
-      <c r="U5" s="108">
+      <c r="U5" s="102">
         <v>259</v>
       </c>
-      <c r="V5" s="108">
+      <c r="V5" s="102">
         <v>821</v>
       </c>
-      <c r="W5" s="108">
+      <c r="W5" s="102">
         <v>237</v>
       </c>
-      <c r="X5" s="108">
+      <c r="X5" s="102">
         <v>754</v>
       </c>
-      <c r="Y5" s="108">
+      <c r="Y5" s="102">
         <v>460</v>
       </c>
-      <c r="Z5" s="108">
+      <c r="Z5" s="102">
         <v>269</v>
       </c>
-      <c r="AA5" s="108">
+      <c r="AA5" s="102">
         <v>402</v>
       </c>
-      <c r="AB5" s="108">
+      <c r="AB5" s="102">
         <v>855</v>
       </c>
-      <c r="AC5" s="108">
+      <c r="AC5" s="102">
         <v>759</v>
       </c>
-      <c r="AD5" s="108">
+      <c r="AD5" s="102">
         <v>736</v>
       </c>
-      <c r="AE5" s="108">
+      <c r="AE5" s="102">
         <v>350</v>
       </c>
-      <c r="AF5" s="108">
+      <c r="AF5" s="102">
         <v>888</v>
       </c>
-      <c r="AG5" s="108">
+      <c r="AG5" s="102">
         <v>842</v>
       </c>
-      <c r="AH5" s="108">
+      <c r="AH5" s="102">
         <v>618</v>
       </c>
-      <c r="AI5" s="108">
+      <c r="AI5" s="102">
         <v>1198</v>
       </c>
-      <c r="AJ5" s="108">
+      <c r="AJ5" s="102">
         <v>1294</v>
       </c>
-      <c r="AK5" s="108">
+      <c r="AK5" s="102">
         <v>855</v>
       </c>
-      <c r="AL5" s="108">
+      <c r="AL5" s="102">
         <v>376</v>
       </c>
-      <c r="AM5" s="108">
+      <c r="AM5" s="102">
         <v>545</v>
       </c>
-      <c r="AN5" s="108">
+      <c r="AN5" s="102">
         <v>332</v>
       </c>
-      <c r="AO5" s="108">
+      <c r="AO5" s="102">
         <v>1580</v>
       </c>
-      <c r="AP5" s="108">
+      <c r="AP5" s="102">
         <v>548</v>
       </c>
-      <c r="AQ5" s="108">
+      <c r="AQ5" s="102">
         <v>3899</v>
       </c>
-      <c r="AR5" s="108">
+      <c r="AR5" s="102">
         <v>1107</v>
       </c>
-      <c r="AS5" s="108">
+      <c r="AS5" s="102">
         <v>8012</v>
       </c>
-      <c r="AT5" s="108">
+      <c r="AT5" s="102">
         <v>2301</v>
       </c>
-      <c r="AU5" s="108">
+      <c r="AU5" s="102">
         <v>286</v>
       </c>
-      <c r="AV5" s="108">
+      <c r="AV5" s="102">
         <v>463</v>
       </c>
-      <c r="AW5" s="108">
+      <c r="AW5" s="102">
         <v>1407</v>
       </c>
-      <c r="AX5" s="108">
+      <c r="AX5" s="102">
         <v>263</v>
       </c>
-      <c r="AY5" s="108">
+      <c r="AY5" s="102">
         <v>1047</v>
       </c>
-      <c r="AZ5" s="108">
+      <c r="AZ5" s="102">
         <v>228</v>
       </c>
-      <c r="BA5" s="108">
+      <c r="BA5" s="102">
         <v>821</v>
       </c>
-      <c r="BB5" s="108">
+      <c r="BB5" s="102">
         <v>4396</v>
       </c>
-      <c r="BC5" s="108">
+      <c r="BC5" s="102">
         <v>1140</v>
       </c>
-      <c r="BD5" s="108">
+      <c r="BD5" s="102">
         <v>5731</v>
       </c>
-      <c r="BE5" s="108">
+      <c r="BE5" s="102">
         <v>267</v>
       </c>
-      <c r="BF5" s="108">
+      <c r="BF5" s="102">
         <v>1545</v>
       </c>
-      <c r="BG5" s="108">
+      <c r="BG5" s="102">
         <v>645</v>
       </c>
-      <c r="BH5" s="108">
+      <c r="BH5" s="102">
         <v>305</v>
       </c>
-      <c r="BI5" s="108">
+      <c r="BI5" s="102">
         <v>411</v>
       </c>
-      <c r="BJ5" s="108">
+      <c r="BJ5" s="102">
         <v>2193</v>
       </c>
-      <c r="BK5" s="108">
+      <c r="BK5" s="102">
         <v>698</v>
       </c>
-      <c r="BL5" s="108">
+      <c r="BL5" s="102">
         <v>109</v>
       </c>
-      <c r="BM5" s="108">
+      <c r="BM5" s="102">
         <v>5</v>
       </c>
-      <c r="BN5" s="108">
+      <c r="BN5" s="102">
         <v>1476</v>
       </c>
-      <c r="BO5" s="108">
+      <c r="BO5" s="102">
         <v>1</v>
       </c>
-      <c r="BP5" s="108">
+      <c r="BP5" s="102">
         <v>1589</v>
       </c>
-      <c r="BQ5" s="108">
+      <c r="BQ5" s="102">
         <v>192</v>
       </c>
-      <c r="BR5" s="108">
+      <c r="BR5" s="102">
         <v>1007</v>
       </c>
-      <c r="BS5" s="108">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="108">
+      <c r="BS5" s="102">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="102">
         <v>66636</v>
       </c>
-      <c r="BU5" s="109">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="109">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="109">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="109">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="109">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="109">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="109">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="109">
+      <c r="BU5" s="103">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="103">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="103">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="103">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="103">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="103">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="103">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="103">
         <v>66636</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A6" s="16">
         <v>98</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="104">
         <v>157113</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="104">
         <v>61446</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="104">
         <v>21731</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="104">
         <v>8866</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="104">
         <v>124623</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="104">
         <v>53671</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="104">
         <v>2274</v>
       </c>
-      <c r="K6" s="110">
+      <c r="K6" s="104">
         <v>31035</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="104">
         <v>8479</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="104">
         <v>44776</v>
       </c>
-      <c r="N6" s="110">
+      <c r="N6" s="104">
         <v>19106</v>
       </c>
-      <c r="O6" s="110">
+      <c r="O6" s="104">
         <v>4757</v>
       </c>
-      <c r="P6" s="110">
+      <c r="P6" s="104">
         <v>13652</v>
       </c>
-      <c r="Q6" s="110">
+      <c r="Q6" s="104">
         <v>24872</v>
       </c>
-      <c r="R6" s="110">
+      <c r="R6" s="104">
         <v>13452</v>
       </c>
-      <c r="S6" s="110">
+      <c r="S6" s="104">
         <v>10169</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="104">
         <v>17282</v>
       </c>
-      <c r="U6" s="110">
+      <c r="U6" s="104">
         <v>9575</v>
       </c>
-      <c r="V6" s="110">
+      <c r="V6" s="104">
         <v>-28223</v>
       </c>
-      <c r="W6" s="110">
+      <c r="W6" s="104">
         <v>6201</v>
       </c>
-      <c r="X6" s="110">
+      <c r="X6" s="104">
         <v>15667</v>
       </c>
-      <c r="Y6" s="110">
+      <c r="Y6" s="104">
         <v>12980</v>
       </c>
-      <c r="Z6" s="110">
+      <c r="Z6" s="104">
         <v>8160</v>
       </c>
-      <c r="AA6" s="110">
+      <c r="AA6" s="104">
         <v>22533</v>
       </c>
-      <c r="AB6" s="110">
+      <c r="AB6" s="104">
         <v>25724</v>
       </c>
-      <c r="AC6" s="110">
+      <c r="AC6" s="104">
         <v>29101</v>
       </c>
-      <c r="AD6" s="110">
+      <c r="AD6" s="104">
         <v>24848</v>
       </c>
-      <c r="AE6" s="110">
+      <c r="AE6" s="104">
         <v>9202</v>
       </c>
-      <c r="AF6" s="110">
+      <c r="AF6" s="104">
         <v>34733</v>
       </c>
-      <c r="AG6" s="110">
+      <c r="AG6" s="104">
         <v>17941</v>
       </c>
-      <c r="AH6" s="110">
+      <c r="AH6" s="104">
         <v>18271</v>
       </c>
-      <c r="AI6" s="110">
+      <c r="AI6" s="104">
         <v>38768</v>
       </c>
-      <c r="AJ6" s="110">
+      <c r="AJ6" s="104">
         <v>35485</v>
       </c>
-      <c r="AK6" s="110">
+      <c r="AK6" s="104">
         <v>25612</v>
       </c>
-      <c r="AL6" s="110">
+      <c r="AL6" s="104">
         <v>11836</v>
       </c>
-      <c r="AM6" s="110">
+      <c r="AM6" s="104">
         <v>30673</v>
       </c>
-      <c r="AN6" s="110">
+      <c r="AN6" s="104">
         <v>22066</v>
       </c>
-      <c r="AO6" s="110">
+      <c r="AO6" s="104">
         <v>57032</v>
       </c>
-      <c r="AP6" s="110">
+      <c r="AP6" s="104">
         <v>35786</v>
       </c>
-      <c r="AQ6" s="110">
+      <c r="AQ6" s="104">
         <v>290641</v>
       </c>
-      <c r="AR6" s="110">
+      <c r="AR6" s="104">
         <v>84636</v>
       </c>
-      <c r="AS6" s="110">
+      <c r="AS6" s="104">
         <v>529451</v>
       </c>
-      <c r="AT6" s="110">
+      <c r="AT6" s="104">
         <v>130316</v>
       </c>
-      <c r="AU6" s="110">
+      <c r="AU6" s="104">
         <v>6023</v>
       </c>
-      <c r="AV6" s="110">
+      <c r="AV6" s="104">
         <v>8412</v>
       </c>
-      <c r="AW6" s="110">
+      <c r="AW6" s="104">
         <v>58670</v>
       </c>
-      <c r="AX6" s="110">
+      <c r="AX6" s="104">
         <v>12445</v>
       </c>
-      <c r="AY6" s="110">
+      <c r="AY6" s="104">
         <v>95622</v>
       </c>
-      <c r="AZ6" s="110">
+      <c r="AZ6" s="104">
         <v>9218</v>
       </c>
-      <c r="BA6" s="110">
+      <c r="BA6" s="104">
         <v>17347</v>
       </c>
-      <c r="BB6" s="110">
+      <c r="BB6" s="104">
         <v>62629</v>
       </c>
-      <c r="BC6" s="110">
+      <c r="BC6" s="104">
         <v>68315</v>
       </c>
-      <c r="BD6" s="110">
+      <c r="BD6" s="104">
         <v>272571</v>
       </c>
-      <c r="BE6" s="110">
+      <c r="BE6" s="104">
         <v>419202</v>
       </c>
-      <c r="BF6" s="110">
+      <c r="BF6" s="104">
         <v>109657</v>
       </c>
-      <c r="BG6" s="110">
+      <c r="BG6" s="104">
         <v>43526</v>
       </c>
-      <c r="BH6" s="110">
+      <c r="BH6" s="104">
         <v>25762</v>
       </c>
-      <c r="BI6" s="110">
+      <c r="BI6" s="104">
         <v>30986</v>
       </c>
-      <c r="BJ6" s="110">
+      <c r="BJ6" s="104">
         <v>127086</v>
       </c>
-      <c r="BK6" s="110">
+      <c r="BK6" s="104">
         <v>27194</v>
       </c>
-      <c r="BL6" s="110">
+      <c r="BL6" s="104">
         <v>447604</v>
       </c>
-      <c r="BM6" s="110">
+      <c r="BM6" s="104">
         <v>201645</v>
       </c>
-      <c r="BN6" s="110">
+      <c r="BN6" s="104">
         <v>56703</v>
       </c>
-      <c r="BO6" s="110">
+      <c r="BO6" s="104">
         <v>96938</v>
       </c>
-      <c r="BP6" s="110">
+      <c r="BP6" s="104">
         <v>104106</v>
       </c>
-      <c r="BQ6" s="110">
+      <c r="BQ6" s="104">
         <v>17629</v>
       </c>
-      <c r="BR6" s="110">
+      <c r="BR6" s="104">
         <v>64495</v>
       </c>
-      <c r="BS6" s="110">
+      <c r="BS6" s="104">
         <v>53656</v>
       </c>
-      <c r="BT6" s="110">
+      <c r="BT6" s="104">
         <v>4553760</v>
       </c>
-      <c r="BU6" s="110">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="110">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="110">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="110">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="110">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="110">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="110">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="110">
+      <c r="BU6" s="104">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="104">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="104">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="104">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="104">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="104">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="104">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="104">
         <v>4553760</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.45">
       <c r="D7" s="55"/>
       <c r="BS7" s="56"/>
       <c r="BT7" s="56"/>
       <c r="CB7" s="56"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.45">
       <c r="D8" s="57" t="s">
         <v>370</v>
       </c>
@@ -30637,7 +30608,7 @@
       <c r="H8" s="56"/>
       <c r="CB8" s="56"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.45">
       <c r="D9" s="58" t="s">
         <v>368</v>
       </c>
@@ -30647,7 +30618,7 @@
       </c>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.45">
       <c r="D10" s="78" t="s">
         <v>86</v>
       </c>
@@ -30656,65 +30627,65 @@
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.45">
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="H16" s="59"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H17" s="59"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H18" s="59"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H19" s="59"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H20" s="59"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H21" s="59"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H25" s="59"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H26" s="59"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H27" s="59"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="H28" s="59"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="H29" s="59"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="H30" s="59"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
       <c r="H31" s="59"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
     </row>
@@ -30728,7 +30699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8668DE27-A16C-44A6-9F7F-C78322D03B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30736,18 +30707,18 @@
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="45" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="17"/>
+    <col min="2" max="16384" width="8.86328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
@@ -30764,7 +30735,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B3" s="40" t="s">
         <v>85</v>
       </c>
@@ -30802,29 +30773,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="103"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="80" t="s">
         <v>69</v>
       </c>
@@ -30870,7 +30841,7 @@
       </c>
       <c r="O5" s="94"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="81" t="s">
         <v>68</v>
       </c>
@@ -30916,7 +30887,7 @@
       </c>
       <c r="O6" s="94"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="80" t="s">
         <v>67</v>
       </c>
@@ -30963,7 +30934,7 @@
       <c r="O7" s="94"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="81" t="s">
         <v>66</v>
       </c>
@@ -31009,7 +30980,7 @@
       </c>
       <c r="O8" s="94"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="80" t="s">
         <v>65</v>
       </c>
@@ -31055,7 +31026,7 @@
       </c>
       <c r="O9" s="94"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="81" t="s">
         <v>64</v>
       </c>
@@ -31101,7 +31072,7 @@
       </c>
       <c r="O10" s="94"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="82" t="s">
         <v>349</v>
       </c>
@@ -31146,26 +31117,26 @@
         <v>3.6115000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="101" t="s">
+    <row r="12" spans="1:16" ht="49.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="103"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
       <c r="N12" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="88" t="s">
         <v>69</v>
       </c>
@@ -31210,7 +31181,7 @@
         <v>1.9501696500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="89" t="s">
         <v>68</v>
       </c>
@@ -31255,7 +31226,7 @@
         <v>0.24886309889658706</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="90" t="s">
         <v>67</v>
       </c>
@@ -31300,7 +31271,7 @@
         <v>0.33047166666666661</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="89" t="s">
         <v>66</v>
       </c>
@@ -31345,7 +31316,7 @@
         <v>0.52321885915396593</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="90" t="s">
         <v>65</v>
       </c>
@@ -31390,7 +31361,7 @@
         <v>0.22811005861611386</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="89" t="s">
         <v>64</v>
       </c>
@@ -31435,7 +31406,7 @@
         <v>0.40249999999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="91" t="s">
         <v>349</v>
       </c>
@@ -31480,27 +31451,27 @@
         <v>3.6833333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="88" t="s">
         <v>69</v>
       </c>
@@ -31545,7 +31516,7 @@
         <v>1.9894881999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="89" t="s">
         <v>68</v>
       </c>
@@ -31590,7 +31561,7 @@
         <v>0.3150797303173703</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="90" t="s">
         <v>67</v>
       </c>
@@ -31635,7 +31606,7 @@
         <v>0.32911499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="89" t="s">
         <v>66</v>
       </c>
@@ -31680,7 +31651,7 @@
         <v>0.5420426619875176</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="90" t="s">
         <v>65</v>
       </c>
@@ -31725,7 +31696,7 @@
         <v>0.25227440769511222</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="89" t="s">
         <v>64</v>
       </c>
@@ -31770,7 +31741,7 @@
         <v>0.41900000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="91" t="s">
         <v>349</v>
       </c>
@@ -31815,29 +31786,29 @@
         <v>3.847</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="49.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="109"/>
       <c r="N29" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="80" t="s">
         <v>69</v>
       </c>
@@ -31882,7 +31853,7 @@
         <v>1.3343553215488213</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="81" t="s">
         <v>73</v>
       </c>
@@ -31927,7 +31898,7 @@
         <v>0.50212245395770971</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="80" t="s">
         <v>67</v>
       </c>
@@ -31972,7 +31943,7 @@
         <v>0.68715272727272714</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="81" t="s">
         <v>66</v>
       </c>
@@ -32017,7 +31988,7 @@
         <v>1.2395459610338238</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="80" t="s">
         <v>65</v>
       </c>
@@ -32062,7 +32033,7 @@
         <v>0.21464508500846657</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="81" t="s">
         <v>64</v>
       </c>
@@ -32107,7 +32078,7 @@
         <v>0.45252188552188549</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="82" t="s">
         <v>63</v>
       </c>
@@ -32152,27 +32123,27 @@
         <v>4.4294343434343428</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="44"/>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="103"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="109"/>
       <c r="N37" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="88" t="s">
         <v>69</v>
       </c>
@@ -32217,7 +32188,7 @@
         <v>1.299000325</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="89" t="s">
         <v>73</v>
       </c>
@@ -32262,7 +32233,7 @@
         <v>0.53082928860944711</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="90" t="s">
         <v>67</v>
       </c>
@@ -32307,7 +32278,7 @@
         <v>0.6868679999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="89" t="s">
         <v>66</v>
       </c>
@@ -32352,7 +32323,7 @@
         <v>1.2463198345310804</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="90" t="s">
         <v>65</v>
       </c>
@@ -32397,7 +32368,7 @@
         <v>0.18281588519280603</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="89" t="s">
         <v>64</v>
       </c>
@@ -32442,7 +32413,7 @@
         <v>0.44916666666666671</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="91" t="s">
         <v>63</v>
       </c>
@@ -32487,27 +32458,27 @@
         <v>4.3950000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="49.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="44"/>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="88" t="s">
         <v>69</v>
       </c>
@@ -32552,7 +32523,7 @@
         <v>1.3698815</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="89" t="s">
         <v>73</v>
       </c>
@@ -32597,7 +32568,7 @@
         <v>0.61671178517964531</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="90" t="s">
         <v>67</v>
       </c>
@@ -32642,7 +32613,7 @@
         <v>0.68686799999999992</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="89" t="s">
         <v>66</v>
       </c>
@@ -32687,7 +32658,7 @@
         <v>1.2907036003044445</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="90" t="s">
         <v>65</v>
       </c>
@@ -32732,7 +32703,7 @@
         <v>0.15283511451591014</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="89" t="s">
         <v>64</v>
       </c>
@@ -32777,7 +32748,7 @@
         <v>0.46300000000000008</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="91" t="s">
         <v>63</v>
       </c>
@@ -32822,7 +32793,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="44"/>
     </row>
   </sheetData>
@@ -32840,7 +32811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32850,13 +32821,13 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="21" t="s">
         <v>342</v>
       </c>
@@ -32870,8 +32841,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -32879,12 +32850,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="93" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -32898,7 +32869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -32912,13 +32883,13 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -32938,7 +32909,7 @@
         <v>1.9894881999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -32958,7 +32929,7 @@
         <v>0.3150797303173703</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -32978,7 +32949,7 @@
         <v>0.32911499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -32998,7 +32969,7 @@
         <v>0.5420426619875176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -33018,7 +32989,7 @@
         <v>0.25227440769511222</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
@@ -33038,7 +33009,7 @@
         <v>0.41900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="97" t="s">
         <v>349</v>
       </c>
@@ -33055,12 +33026,12 @@
         <v>3.847</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -33068,7 +33039,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -33088,7 +33059,7 @@
         <v>1.3698815</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -33108,7 +33079,7 @@
         <v>0.61671178517964531</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -33128,7 +33099,7 @@
         <v>0.68686799999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
@@ -33148,7 +33119,7 @@
         <v>1.2907036003044445</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -33168,7 +33139,7 @@
         <v>0.15283511451591014</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -33188,7 +33159,7 @@
         <v>0.46300000000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="97" t="s">
         <v>349</v>
       </c>
@@ -33205,37 +33176,37 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="97"/>
     </row>
-    <row r="27" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
+    <row r="27" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
     </row>
-    <row r="28" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="79"/>
     </row>
-    <row r="29" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="79"/>
     </row>
-    <row r="30" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="79"/>
     </row>
-    <row r="31" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="79"/>
     </row>
-    <row r="32" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="79"/>
     </row>
-    <row r="33" spans="2:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="79"/>
     </row>
-    <row r="34" spans="2:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="79"/>
     </row>
-    <row r="35" spans="2:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="79"/>
     </row>
   </sheetData>
@@ -33248,3045 +33219,3061 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="17">
+        <v>1.4633182249393908E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B6" s="18">
         <v>2015</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C6" s="18">
         <v>2016</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D6" s="1">
         <v>2017</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E6" s="1">
         <v>2018</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F6" s="1">
         <v>2019</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G6" s="1">
         <v>2020</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H6" s="1">
         <v>2021</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I6" s="1">
         <v>2022</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J6" s="1">
         <v>2023</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K6" s="1">
         <v>2024</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L6" s="1">
         <v>2025</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M6" s="1">
         <v>2026</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N6" s="1">
         <v>2027</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O6" s="1">
         <v>2028</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P6" s="1">
         <v>2029</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q6" s="1">
         <v>2030</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R6" s="1">
         <v>2031</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S6" s="1">
         <v>2032</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T6" s="1">
         <v>2033</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U6" s="1">
         <v>2034</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V6" s="1">
         <v>2035</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W6" s="1">
         <v>2036</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X6" s="1">
         <v>2037</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y6" s="1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z6" s="1">
         <v>2039</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA6" s="1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB6" s="1">
         <v>2041</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC6" s="1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD6" s="1">
         <v>2043</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE6" s="1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF6" s="1">
         <v>2045</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG6" s="1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH6" s="1">
         <v>2047</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI6" s="1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ6" s="1">
         <v>2049</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK6" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ2" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK2" s="49">
+      <c r="B7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ7" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK7" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ3" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK3" s="49">
+      <c r="B8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ8" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK8" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ4" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK4" s="49">
+      <c r="B9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ9" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK9" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ5" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK5" s="49">
+      <c r="B10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ10" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK10" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
+      <c r="B12" s="17">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ9" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK9" s="49">
+      <c r="B14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ14" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK14" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20">
-        <f>E10</f>
-        <v>0.76983707182937466</v>
-      </c>
-      <c r="C10" s="20">
-        <f>E10</f>
-        <v>0.76983707182937466</v>
-      </c>
-      <c r="D10" s="4">
-        <f>E10</f>
-        <v>0.76983707182937466</v>
-      </c>
-      <c r="E10" s="20">
-        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(E$1,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$25:$E$25,MATCH(E$1,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(E$1,Petroleum!$C$1:$E$1,0)))))</f>
-        <v>0.76983707182937466</v>
-      </c>
-      <c r="F10" s="20">
-        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(F$1,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$25:$E$25,MATCH(F$1,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(F$1,Petroleum!$C$1:$E$1,0)))))</f>
-        <v>0.78527024183538829</v>
-      </c>
-      <c r="G10" s="20">
-        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$1,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$25:$E$25,MATCH(G$1,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$1,Petroleum!$C$1:$E$1,0)))))</f>
+      <c r="B15" s="20">
+        <f>E15</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="C15" s="20">
+        <f>E15</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="D15" s="4">
+        <f>E15</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="E15" s="20">
+        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(E$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(E$6,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="F15" s="20">
+        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(F$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(F$6,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.4398607132038862</v>
+      </c>
+      <c r="G15" s="20">
+        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$25:$E$25,MATCH(G$6,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0)))))</f>
         <v>0.7598947200759838</v>
       </c>
-      <c r="H10" s="4">
-        <f>$G10</f>
+      <c r="H15" s="4">
+        <f>$G15</f>
         <v>0.7598947200759838</v>
       </c>
-      <c r="I10" s="20">
-        <f t="shared" ref="I10:AK13" si="0">$G10</f>
+      <c r="I15" s="20">
+        <f t="shared" ref="I15:AK18" si="0">$G15</f>
         <v>0.7598947200759838</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="Y10" s="20">
+      <c r="Y15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AC10" s="20">
+      <c r="AC15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AD15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AE10" s="20">
+      <c r="AE15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AF10" s="20">
+      <c r="AF15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AG10" s="20">
+      <c r="AG15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AH15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AI15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AJ15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
-      <c r="AK10" s="20">
+      <c r="AK15" s="20">
         <f t="shared" si="0"/>
         <v>0.7598947200759838</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20">
-        <f t="shared" ref="B11:B13" si="1">E11</f>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="C11" s="20">
-        <f t="shared" ref="C11:C13" si="2">E11</f>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="D11" s="20">
-        <f t="shared" ref="D11:D12" si="3">E11</f>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="E11" s="20">
-        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(E$1,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$16:$E$16,MATCH(E$1,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(E$1,Petroleum!$C$1:$E$1,0)))))</f>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="F11" s="20">
-        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(F$1,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$16:$E$16,MATCH(F$1,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(F$1,Petroleum!$C$1:$E$1,0)))))</f>
-        <v>0.30169550854761046</v>
-      </c>
-      <c r="G11" s="20">
-        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$1,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$16:$E$16,MATCH(G$1,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$1,Petroleum!$C$1:$E$1,0)))))</f>
+      <c r="B16" s="20">
+        <f t="shared" ref="B16:B18" si="1">E16</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" ref="C16:C18" si="2">E16</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" ref="D16:D17" si="3">E16</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="E16" s="20">
+        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(E$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(E$6,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="F16" s="20">
+        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(F$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(F$6,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.23177118348071471</v>
+      </c>
+      <c r="G16" s="20">
+        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$16:$E$16,MATCH(G$6,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0)))))</f>
         <v>0.29274321789821367</v>
       </c>
-      <c r="H11" s="20">
-        <f t="shared" ref="H11:H13" si="4">$G11</f>
+      <c r="H16" s="20">
+        <f t="shared" ref="H16:H18" si="4">$G16</f>
         <v>0.29274321789821367</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AE16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AF11" s="20">
+      <c r="AF16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AG11" s="20">
+      <c r="AG16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AH11" s="20">
+      <c r="AH16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AI11" s="20">
+      <c r="AI16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AJ11" s="20">
+      <c r="AJ16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AK11" s="20">
+      <c r="AK16" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B17" s="20">
         <f t="shared" si="1"/>
-        <v>0.42956908608079108</v>
-      </c>
-      <c r="C12" s="20">
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="C17" s="20">
         <f t="shared" si="2"/>
-        <v>0.42956908608079108</v>
-      </c>
-      <c r="D12" s="20">
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="D17" s="20">
         <f t="shared" si="3"/>
-        <v>0.42956908608079108</v>
-      </c>
-      <c r="E12" s="20">
-        <f>E10*0.558</f>
-        <v>0.42956908608079108</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" ref="F12:G12" si="5">F10*0.558</f>
-        <v>0.43818079494414669</v>
-      </c>
-      <c r="G12" s="20">
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" ref="E17:G17" si="5">E15*0.558</f>
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="F17" s="20">
+        <f>F15*0.558</f>
+        <v>0.24544227796776852</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="5"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H17" s="20">
         <f t="shared" si="4"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="Z12" s="20">
+      <c r="Z17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AA12" s="20">
+      <c r="AA17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AB12" s="20">
+      <c r="AB17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AC17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AD17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AE17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AF12" s="20">
+      <c r="AF17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AG12" s="20">
+      <c r="AG17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AH17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AI12" s="20">
+      <c r="AI17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AJ12" s="20">
+      <c r="AJ17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
-      <c r="AK12" s="20">
+      <c r="AK17" s="20">
         <f t="shared" si="0"/>
         <v>0.42402125380239902</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B18" s="20">
         <f t="shared" si="1"/>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="C13" s="20">
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="C18" s="20">
         <f t="shared" si="2"/>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="D13" s="20">
-        <f>E13</f>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" ref="E13:G13" si="6">E11</f>
-        <v>0.32208955639755321</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="6"/>
-        <v>0.30169550854761046</v>
-      </c>
-      <c r="G13" s="20">
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="D18" s="20">
+        <f>E18</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" ref="E18:G18" si="6">E16</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="F18" s="20">
+        <f>F16</f>
+        <v>0.23177118348071471</v>
+      </c>
+      <c r="G18" s="20">
         <f t="shared" si="6"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H18" s="20">
         <f t="shared" si="4"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="Z13" s="20">
+      <c r="Z18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="AA18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AD18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AE13" s="20">
+      <c r="AE18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AF13" s="20">
+      <c r="AF18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AG13" s="20">
+      <c r="AG18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AH13" s="20">
+      <c r="AH18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AI13" s="20">
+      <c r="AI18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AJ13" s="20">
+      <c r="AJ18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
-      <c r="AK13" s="20">
+      <c r="AK18" s="20">
         <f t="shared" si="0"/>
         <v>0.29274321789821367</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ14" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK14" s="49">
+      <c r="B19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ19" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK19" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ15" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK15" s="49">
+      <c r="B20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ20" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK20" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
+      <c r="B21" s="17">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ17" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK17" s="49">
+      <c r="B22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ22" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK22" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="17">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="17">
-        <v>0</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
+      <c r="B24" s="17">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ20" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK20" s="49">
+      <c r="B25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ25" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK25" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ21" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK21" s="49">
+      <c r="B26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ26" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK26" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK22" s="49">
+      <c r="B27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ27" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK27" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>

--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2332,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29800,7 +29800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -30626,6 +30628,20 @@
         <f>E8/E9</f>
         <v>1.4633182249393908E-2</v>
       </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.45">
+      <c r="D11" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1.4633182249393908E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.45">
+      <c r="D12" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.45">
       <c r="B16" s="59"/>
@@ -33223,10 +33239,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33236,436 +33252,1057 @@
     <col min="3" max="3" width="8.796875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="17">
-        <v>1.4633182249393908E-2</v>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="18">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
-        <v>376</v>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK2" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK3" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK4" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK5" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+    </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2016</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2021</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2022</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2025</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2026</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2027</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2028</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2029</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2030</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2031</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2032</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2033</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2034</v>
-      </c>
-      <c r="V6" s="1">
-        <v>2035</v>
-      </c>
-      <c r="W6" s="1">
-        <v>2036</v>
-      </c>
-      <c r="X6" s="1">
-        <v>2037</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2038</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>2039</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>2040</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>2041</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2042</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>2050</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK7" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK8" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" s="49">
         <f>About!$C$33</f>
@@ -33813,496 +34450,604 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK10" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
+      <c r="A10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="20">
+        <f>E10</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="C10" s="20">
+        <f>E10</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="D10" s="4">
+        <f>E10</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="E10" s="20">
+        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(E$1,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(E$1,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.43497623825544579</v>
+      </c>
+      <c r="F10" s="20">
+        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(F$1,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(F$1,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.4398607132038862</v>
+      </c>
+      <c r="G10" s="20">
+        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$1,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(G$1,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="H10" s="4">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="I10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="J10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="K10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="L10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="M10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="N10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="O10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="P10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="Q10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="R10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="S10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="T10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="U10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="V10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="W10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="X10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="Y10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="Z10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AA10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AB10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AC10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AD10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AE10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AF10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AG10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AH10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AI10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AJ10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
+      </c>
+      <c r="AK10" s="20">
+        <f>$G10</f>
+        <v>0.43178419220621062</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
+      <c r="A11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20">
+        <f t="shared" ref="B11:B13" si="0">E11</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:C13" si="1">E11</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" ref="D11:D12" si="2">E11</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="E11" s="20">
+        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(E$1,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(E$1,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="F11" s="20">
+        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(F$1,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(F$1,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.23177118348071471</v>
+      </c>
+      <c r="G11" s="20">
+        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$1,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(G$1,Petroleum!$C$1:$E$1,0))</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" ref="H11:H13" si="3">$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="I11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="J11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="K11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="L11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="M11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="N11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="O11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="P11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="Q11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="R11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="S11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="T11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="U11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="V11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="W11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="X11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="Y11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AA11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AB11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AC11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AD11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AE11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AF11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AG11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AH11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AI11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AJ11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AK11" s="20">
+        <f>$G11</f>
+        <v>0.22645117285872568</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
+      <c r="A12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="2"/>
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="E12" s="20">
+        <f>E10*0.558</f>
+        <v>0.24271674094653878</v>
+      </c>
+      <c r="F12" s="20">
+        <f>F10*0.558</f>
+        <v>0.24544227796776852</v>
+      </c>
+      <c r="G12" s="20">
+        <f>G10*0.558</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="3"/>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="I12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="J12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="K12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="L12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="M12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="N12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="O12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="P12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="Q12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="R12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="S12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="T12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="U12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="V12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="W12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="X12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="Y12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AA12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AB12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AC12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AD12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AE12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AF12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AG12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AH12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AI12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AJ12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
+      </c>
+      <c r="AK12" s="20">
+        <f>$G12</f>
+        <v>0.24093557925106554</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
+      <c r="A13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="D13" s="20">
+        <f>E13</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" ref="E13:G13" si="4">E11</f>
+        <v>0.24362158738715628</v>
+      </c>
+      <c r="F13" s="20">
+        <f>F11</f>
+        <v>0.23177118348071471</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="4"/>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="I13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="J13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="K13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="L13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="M13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="N13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="O13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="P13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="Q13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="R13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="S13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="T13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="U13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="V13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="W13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="X13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="Y13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AA13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AB13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AC13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AD13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AE13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AF13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AG13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AH13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AI13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AJ13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
+      </c>
+      <c r="AK13" s="20">
+        <f>$G13</f>
+        <v>0.22645117285872568</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
+      <c r="A14" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="49">
         <f>About!$C$33</f>
@@ -34450,753 +35195,645 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="20">
-        <f>E15</f>
-        <v>0.43497623825544579</v>
-      </c>
-      <c r="C15" s="20">
-        <f>E15</f>
-        <v>0.43497623825544579</v>
-      </c>
-      <c r="D15" s="4">
-        <f>E15</f>
-        <v>0.43497623825544579</v>
-      </c>
-      <c r="E15" s="20">
-        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(E$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(E$6,Petroleum!$C$1:$E$1,0))</f>
-        <v>0.43497623825544579</v>
-      </c>
-      <c r="F15" s="20">
-        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(F$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$25:$E$25,MATCH(F$6,Petroleum!$C$1:$E$1,0))</f>
-        <v>0.4398607132038862</v>
-      </c>
-      <c r="G15" s="20">
-        <f>SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$25:$E$25,MATCH(G$6,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$21:$E$22,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0)))))</f>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="H15" s="4">
-        <f>$G15</f>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" ref="I15:AK18" si="0">$G15</f>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="K15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="L15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="O15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="P15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="Q15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="R15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="S15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="T15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="U15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="V15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="W15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="X15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="Y15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="Z15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AA15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AB15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AC15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AD15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AE15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AF15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AG15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AH15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AI15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AJ15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
-      </c>
-      <c r="AK15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7598947200759838</v>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK15" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="20">
-        <f t="shared" ref="B16:B18" si="1">E16</f>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="C16" s="20">
-        <f t="shared" ref="C16:C18" si="2">E16</f>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="D16" s="20">
-        <f t="shared" ref="D16:D17" si="3">E16</f>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="E16" s="20">
-        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(E$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(E$6,Petroleum!$C$1:$E$1,0))</f>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="F16" s="20">
-        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(F$6,Petroleum!$C$1:$E$1,0))))/INDEX(Petroleum!$C$16:$E$16,MATCH(F$6,Petroleum!$C$1:$E$1,0))</f>
-        <v>0.23177118348071471</v>
-      </c>
-      <c r="G16" s="20">
-        <f>SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0))))/(INDEX(Petroleum!$C$16:$E$16,MATCH(G$6,Petroleum!$C$1:$E$1,0))-SUM(INDEX(Petroleum!$C$12:$E$13,0,(MATCH(G$6,Petroleum!$C$1:$E$1,0)))))</f>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" ref="H16:H18" si="4">$G16</f>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="L16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="O16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="P16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="Q16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="R16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="S16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="T16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="U16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="V16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="W16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="X16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="Y16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="Z16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AA16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AB16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AC16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AD16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AE16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AF16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AG16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AH16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AI16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AJ16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AK16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="20">
-        <f t="shared" si="1"/>
-        <v>0.24271674094653878</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="2"/>
-        <v>0.24271674094653878</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" si="3"/>
-        <v>0.24271674094653878</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" ref="E17:G17" si="5">E15*0.558</f>
-        <v>0.24271674094653878</v>
-      </c>
-      <c r="F17" s="20">
-        <f>F15*0.558</f>
-        <v>0.24544227796776852</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="5"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="4"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="I17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="L17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="M17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="N17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="O17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="Q17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="R17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="S17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="T17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="U17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="V17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="W17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="X17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="Y17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="Z17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AA17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AB17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AC17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AD17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AE17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AF17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AG17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AH17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AI17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AJ17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
-      </c>
-      <c r="AK17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.42402125380239902</v>
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK17" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" si="2"/>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="D18" s="20">
-        <f>E18</f>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="E18" s="20">
-        <f t="shared" ref="E18:G18" si="6">E16</f>
-        <v>0.24362158738715628</v>
-      </c>
-      <c r="F18" s="20">
-        <f>F16</f>
-        <v>0.23177118348071471</v>
-      </c>
-      <c r="G18" s="20">
-        <f t="shared" si="6"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="4"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="L18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="M18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="O18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="Q18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="R18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="S18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="T18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="U18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="V18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="W18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="X18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="Y18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="Z18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AA18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AB18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AC18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AD18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AE18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AF18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AG18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AH18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AI18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AJ18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
-      </c>
-      <c r="AK18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.29274321789821367</v>
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK19" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B20" s="49">
         <f>About!$C$33</f>
@@ -35345,120 +35982,156 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="17">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="C21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="D21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="E21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="F21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="G21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="H21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="I21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="J21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="K21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="L21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="M21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="N21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="O21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="P21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Q21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="R21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="S21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="T21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="U21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="V21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="W21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="X21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Y21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="Z21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AA21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AB21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AC21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AD21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AE21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AF21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AG21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AH21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AI21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AJ21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
+      </c>
+      <c r="AK21" s="49">
+        <f>About!$C$33</f>
+        <v>1.4633182249393908E-2</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="49">
         <f>About!$C$33</f>
@@ -35601,679 +36274,6 @@
         <v>1.4633182249393908E-2</v>
       </c>
       <c r="AK22" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK25" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK26" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="C27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="D27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="E27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="F27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="G27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="H27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="I27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="J27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="K27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="L27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="M27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="N27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="O27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="P27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Q27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="R27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="S27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="T27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="U27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="V27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="W27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="X27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Y27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="Z27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AA27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AB27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AC27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AD27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AE27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AF27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AG27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AH27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AI27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AJ27" s="49">
-        <f>About!$C$33</f>
-        <v>1.4633182249393908E-2</v>
-      </c>
-      <c r="AK27" s="49">
         <f>About!$C$33</f>
         <v>1.4633182249393908E-2</v>
       </c>
